--- a/final_df.xlsx
+++ b/final_df.xlsx
@@ -5,17 +5,30 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo Thinkpad E14\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo Thinkpad E14\Documents\GitHub\Arkad\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C019E898-D232-49E0-BC2F-FBCC93B99181}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1EB20E5-8592-40C4-8A10-406969E15561}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -45,7 +58,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -101,7 +114,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -407,7 +420,7 @@
   <dimension ref="A1:G638"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+      <selection activeCell="K551" sqref="K551"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -451,9 +464,6 @@
       <c r="D2">
         <v>0</v>
       </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
       <c r="F2">
         <v>479.22000122070313</v>
       </c>
@@ -475,7 +485,7 @@
         <v>1</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F3">
         <v>477.16000366210938</v>
@@ -567,7 +577,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F7">
         <v>465.23001098632813</v>
@@ -590,7 +600,7 @@
         <v>0</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F8">
         <v>471.58999633789063</v>
@@ -613,7 +623,7 @@
         <v>1</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F9">
         <v>472.19000244140631</v>
@@ -636,7 +646,7 @@
         <v>0</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F10">
         <v>461.19000244140631</v>
@@ -705,7 +715,7 @@
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F13">
         <v>453.75</v>
@@ -728,7 +738,7 @@
         <v>1</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F14">
         <v>445.55999755859381</v>
@@ -774,7 +784,7 @@
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F16">
         <v>433.05999755859381</v>
@@ -797,7 +807,7 @@
         <v>0</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F17">
         <v>440.72000122070313</v>
@@ -866,7 +876,7 @@
         <v>1</v>
       </c>
       <c r="E20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F20">
         <v>441.239990234375</v>
@@ -912,7 +922,7 @@
         <v>0</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F22">
         <v>455.5</v>
@@ -958,7 +968,7 @@
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F24">
         <v>446.35000610351563</v>
@@ -981,7 +991,7 @@
         <v>1</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F25">
         <v>449.510009765625</v>
@@ -1027,7 +1037,7 @@
         <v>0</v>
       </c>
       <c r="E27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F27">
         <v>455.22000122070313</v>
@@ -1096,7 +1106,7 @@
         <v>1</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F30">
         <v>439.92001342773438</v>
@@ -1119,7 +1129,7 @@
         <v>1</v>
       </c>
       <c r="E31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F31">
         <v>443.73001098632813</v>
@@ -1234,7 +1244,7 @@
         <v>1</v>
       </c>
       <c r="E36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F36">
         <v>432.66000366210938</v>
@@ -1303,7 +1313,7 @@
         <v>0</v>
       </c>
       <c r="E39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F39">
         <v>432.02999877929688</v>
@@ -1326,7 +1336,7 @@
         <v>1</v>
       </c>
       <c r="E40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F40">
         <v>435.04000854492188</v>
@@ -1349,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="E41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F41">
         <v>432.3699951171875</v>
@@ -1372,7 +1382,7 @@
         <v>1</v>
       </c>
       <c r="E42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F42">
         <v>440.47000122070313</v>
@@ -1395,7 +1405,7 @@
         <v>0</v>
       </c>
       <c r="E43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F43">
         <v>431.75</v>
@@ -1441,7 +1451,7 @@
         <v>1</v>
       </c>
       <c r="E45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F45">
         <v>419.6199951171875</v>
@@ -1487,7 +1497,7 @@
         <v>0</v>
       </c>
       <c r="E47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F47">
         <v>422.51998901367188</v>
@@ -1533,7 +1543,7 @@
         <v>1</v>
       </c>
       <c r="E49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F49">
         <v>420.8900146484375</v>
@@ -1671,7 +1681,7 @@
         <v>0</v>
       </c>
       <c r="E55">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F55">
         <v>445.8599853515625</v>
@@ -1694,7 +1704,7 @@
         <v>1</v>
       </c>
       <c r="E56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F56">
         <v>446.91000366210938</v>
@@ -1786,7 +1796,7 @@
         <v>0</v>
       </c>
       <c r="E60">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F60">
         <v>460.01998901367188</v>
@@ -1855,7 +1865,7 @@
         <v>1</v>
       </c>
       <c r="E63">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F63">
         <v>453.30999755859381</v>
@@ -1878,7 +1888,7 @@
         <v>0</v>
       </c>
       <c r="E64">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F64">
         <v>453.1300048828125</v>
@@ -1924,7 +1934,7 @@
         <v>1</v>
       </c>
       <c r="E66">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F66">
         <v>446.8900146484375</v>
@@ -1947,7 +1957,7 @@
         <v>0</v>
       </c>
       <c r="E67">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F67">
         <v>445.58999633789063</v>
@@ -2016,7 +2026,7 @@
         <v>1</v>
       </c>
       <c r="E70">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F70">
         <v>443.07998657226563</v>
@@ -2039,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="E71">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F71">
         <v>438.02999877929688</v>
@@ -2062,7 +2072,7 @@
         <v>1</v>
       </c>
       <c r="E72">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F72">
         <v>443.54998779296881</v>
@@ -2154,7 +2164,7 @@
         <v>0</v>
       </c>
       <c r="E76">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F76">
         <v>448.54000854492188</v>
@@ -2200,7 +2210,7 @@
         <v>0</v>
       </c>
       <c r="E78">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F78">
         <v>423.67001342773438</v>
@@ -2223,7 +2233,7 @@
         <v>1</v>
       </c>
       <c r="E79">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F79">
         <v>425.82998657226563</v>
@@ -2315,7 +2325,7 @@
         <v>1</v>
       </c>
       <c r="E83">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F83">
         <v>412.07000732421881</v>
@@ -2361,7 +2371,7 @@
         <v>0</v>
       </c>
       <c r="E85">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F85">
         <v>417.07998657226563</v>
@@ -2384,7 +2394,7 @@
         <v>1</v>
       </c>
       <c r="E86">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F86">
         <v>424.54998779296881</v>
@@ -2407,7 +2417,7 @@
         <v>0</v>
       </c>
       <c r="E87">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F87">
         <v>411.10000610351563</v>
@@ -2476,7 +2486,7 @@
         <v>1</v>
       </c>
       <c r="E90">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F90">
         <v>398.07000732421881</v>
@@ -2568,7 +2578,7 @@
         <v>0</v>
       </c>
       <c r="E94">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F94">
         <v>406.52999877929688</v>
@@ -2591,7 +2601,7 @@
         <v>1</v>
       </c>
       <c r="E95">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F95">
         <v>403.5</v>
@@ -2614,7 +2624,7 @@
         <v>0</v>
       </c>
       <c r="E96">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F96">
         <v>388.6199951171875</v>
@@ -2637,7 +2647,7 @@
         <v>1</v>
       </c>
       <c r="E97">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F97">
         <v>393.25</v>
@@ -2775,7 +2785,7 @@
         <v>0</v>
       </c>
       <c r="E103">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F103">
         <v>413.54998779296881</v>
@@ -2798,7 +2808,7 @@
         <v>1</v>
       </c>
       <c r="E104">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F104">
         <v>415.17001342773438</v>
@@ -2821,7 +2831,7 @@
         <v>0</v>
       </c>
       <c r="E105">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F105">
         <v>409.42001342773438</v>
@@ -2867,7 +2877,7 @@
         <v>1</v>
       </c>
       <c r="E107">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F107">
         <v>414.77999877929688</v>
@@ -2890,7 +2900,7 @@
         <v>0</v>
       </c>
       <c r="E108">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F108">
         <v>408.10000610351563</v>
@@ -2913,7 +2923,7 @@
         <v>0</v>
       </c>
       <c r="E109">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F109">
         <v>413.92999267578131</v>
@@ -2936,7 +2946,7 @@
         <v>0</v>
       </c>
       <c r="E110">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F110">
         <v>409.33999633789063</v>
@@ -2959,7 +2969,7 @@
         <v>0</v>
       </c>
       <c r="E111">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F111">
         <v>394.8800048828125</v>
@@ -2982,7 +2992,7 @@
         <v>0</v>
       </c>
       <c r="E112">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F112">
         <v>379.85000610351563</v>
@@ -3028,7 +3038,7 @@
         <v>0</v>
       </c>
       <c r="E114">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F114">
         <v>377.3599853515625</v>
@@ -3166,7 +3176,7 @@
         <v>0</v>
       </c>
       <c r="E120">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F120">
         <v>381.39999389648438</v>
@@ -3235,7 +3245,7 @@
         <v>1</v>
       </c>
       <c r="E123">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F123">
         <v>381.23001098632813</v>
@@ -3396,7 +3406,7 @@
         <v>0</v>
       </c>
       <c r="E130">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F130">
         <v>385.85000610351563</v>
@@ -3419,7 +3429,7 @@
         <v>1</v>
       </c>
       <c r="E131">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F131">
         <v>383.64999389648438</v>
@@ -3488,7 +3498,7 @@
         <v>0</v>
       </c>
       <c r="E134">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F134">
         <v>382.54998779296881</v>
@@ -3511,7 +3521,7 @@
         <v>1</v>
       </c>
       <c r="E135">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F135">
         <v>388.3800048828125</v>
@@ -3580,7 +3590,7 @@
         <v>0</v>
       </c>
       <c r="E138">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F138">
         <v>394.16000366210938</v>
@@ -3603,7 +3613,7 @@
         <v>0</v>
       </c>
       <c r="E139">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F139">
         <v>398.92001342773438</v>
@@ -3672,7 +3682,7 @@
         <v>1</v>
       </c>
       <c r="E142">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F142">
         <v>394.3599853515625</v>
@@ -3695,7 +3705,7 @@
         <v>1</v>
       </c>
       <c r="E143">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F143">
         <v>401.8900146484375</v>
@@ -3741,7 +3751,7 @@
         <v>0</v>
       </c>
       <c r="E145">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F145">
         <v>409.14999389648438</v>
@@ -3764,7 +3774,7 @@
         <v>1</v>
       </c>
       <c r="E146">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F146">
         <v>409.1199951171875</v>
@@ -3787,7 +3797,7 @@
         <v>0</v>
       </c>
       <c r="E147">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F147">
         <v>410.29998779296881</v>
@@ -3925,7 +3935,7 @@
         <v>1</v>
       </c>
       <c r="E153">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F153">
         <v>422.989990234375</v>
@@ -3948,7 +3958,7 @@
         <v>1</v>
       </c>
       <c r="E154">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F154">
         <v>422.02999877929688</v>
@@ -4017,7 +4027,7 @@
         <v>1</v>
       </c>
       <c r="E157">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F157">
         <v>425.91000366210938</v>
@@ -4040,7 +4050,7 @@
         <v>0</v>
       </c>
       <c r="E158">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F158">
         <v>426.8599853515625</v>
@@ -4178,7 +4188,7 @@
         <v>1</v>
       </c>
       <c r="E164">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F164">
         <v>419.3900146484375</v>
@@ -4247,7 +4257,7 @@
         <v>1</v>
       </c>
       <c r="E167">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F167">
         <v>399.92999267578131</v>
@@ -4270,7 +4280,7 @@
         <v>0</v>
       </c>
       <c r="E168">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F168">
         <v>392.8900146484375</v>
@@ -4385,7 +4395,7 @@
         <v>1</v>
       </c>
       <c r="E173">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F173">
         <v>402.739990234375</v>
@@ -4408,7 +4418,7 @@
         <v>0</v>
       </c>
       <c r="E174">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F174">
         <v>408.77999877929688</v>
@@ -4454,7 +4464,7 @@
         <v>0</v>
       </c>
       <c r="E176">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F176">
         <v>394.47000122070313</v>
@@ -4477,7 +4487,7 @@
         <v>1</v>
       </c>
       <c r="E177">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F177">
         <v>392.95999145507813</v>
@@ -4523,7 +4533,7 @@
         <v>0</v>
       </c>
       <c r="E179">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F179">
         <v>382.260009765625</v>
@@ -4638,7 +4648,7 @@
         <v>0</v>
       </c>
       <c r="E184">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F184">
         <v>366.41000366210938</v>
@@ -4684,7 +4694,7 @@
         <v>0</v>
       </c>
       <c r="E186">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F186">
         <v>364.3800048828125</v>
@@ -4730,7 +4740,7 @@
         <v>1</v>
       </c>
       <c r="E188">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F188">
         <v>361.79998779296881</v>
@@ -4776,7 +4786,7 @@
         <v>1</v>
       </c>
       <c r="E190">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F190">
         <v>372.39999389648438</v>
@@ -4799,7 +4809,7 @@
         <v>0</v>
       </c>
       <c r="E191">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F191">
         <v>373.3900146484375</v>
@@ -4822,7 +4832,7 @@
         <v>0</v>
       </c>
       <c r="E192">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F192">
         <v>375.6199951171875</v>
@@ -4914,7 +4924,7 @@
         <v>1</v>
       </c>
       <c r="E196">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F196">
         <v>358.17001342773438</v>
@@ -4960,7 +4970,7 @@
         <v>1</v>
       </c>
       <c r="E198">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F198">
         <v>368.54998779296881</v>
@@ -5006,7 +5016,7 @@
         <v>0</v>
       </c>
       <c r="E200">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F200">
         <v>375.1300048828125</v>
@@ -5144,7 +5154,7 @@
         <v>0</v>
       </c>
       <c r="E206">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F206">
         <v>381.6199951171875</v>
@@ -5167,7 +5177,7 @@
         <v>1</v>
       </c>
       <c r="E207">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F207">
         <v>383.07000732421881</v>
@@ -5213,7 +5223,7 @@
         <v>0</v>
       </c>
       <c r="E209">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F209">
         <v>386.44000244140631</v>
@@ -5328,7 +5338,7 @@
         <v>1</v>
       </c>
       <c r="E214">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F214">
         <v>377.70999145507813</v>
@@ -5443,7 +5453,7 @@
         <v>0</v>
       </c>
       <c r="E219">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F219">
         <v>396.66000366210938</v>
@@ -5489,7 +5499,7 @@
         <v>1</v>
       </c>
       <c r="E221">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F221">
         <v>396.77999877929688</v>
@@ -5535,7 +5545,7 @@
         <v>0</v>
       </c>
       <c r="E223">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F223">
         <v>397.739990234375</v>
@@ -5558,7 +5568,7 @@
         <v>1</v>
       </c>
       <c r="E224">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F224">
         <v>394.6400146484375</v>
@@ -5604,7 +5614,7 @@
         <v>1</v>
       </c>
       <c r="E226">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F226">
         <v>399.54998779296881</v>
@@ -5627,7 +5637,7 @@
         <v>0</v>
       </c>
       <c r="E227">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F227">
         <v>401.82998657226563</v>
@@ -5650,7 +5660,7 @@
         <v>0</v>
       </c>
       <c r="E228">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F228">
         <v>399.08999633789063</v>
@@ -5673,7 +5683,7 @@
         <v>1</v>
       </c>
       <c r="E229">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F229">
         <v>396.04998779296881</v>
@@ -5696,7 +5706,7 @@
         <v>0</v>
       </c>
       <c r="E230">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F230">
         <v>395.489990234375</v>
@@ -5719,7 +5729,7 @@
         <v>1</v>
       </c>
       <c r="E231">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F231">
         <v>408.76998901367188</v>
@@ -5742,7 +5752,7 @@
         <v>0</v>
       </c>
       <c r="E232">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F232">
         <v>402.25</v>
@@ -5788,7 +5798,7 @@
         <v>1</v>
       </c>
       <c r="E234">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F234">
         <v>399.42001342773438</v>
@@ -5834,7 +5844,7 @@
         <v>0</v>
       </c>
       <c r="E236">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F236">
         <v>395.1400146484375</v>
@@ -5903,7 +5913,7 @@
         <v>0</v>
       </c>
       <c r="E239">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F239">
         <v>410.22000122070313</v>
@@ -5926,7 +5936,7 @@
         <v>0</v>
       </c>
       <c r="E240">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F240">
         <v>401.6099853515625</v>
@@ -5995,7 +6005,7 @@
         <v>1</v>
       </c>
       <c r="E243">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F243">
         <v>383.47000122070313</v>
@@ -6041,7 +6051,7 @@
         <v>0</v>
       </c>
       <c r="E245">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F245">
         <v>383.25</v>
@@ -6064,7 +6074,7 @@
         <v>1</v>
       </c>
       <c r="E246">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F246">
         <v>383.04998779296881</v>
@@ -6087,7 +6097,7 @@
         <v>0</v>
       </c>
       <c r="E247">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F247">
         <v>379.64999389648438</v>
@@ -6133,7 +6143,7 @@
         <v>1</v>
       </c>
       <c r="E249">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F249">
         <v>381.32998657226563</v>
@@ -6179,7 +6189,7 @@
         <v>0</v>
       </c>
       <c r="E251">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F251">
         <v>380.6400146484375</v>
@@ -6202,7 +6212,7 @@
         <v>1</v>
       </c>
       <c r="E252">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F252">
         <v>384.3699951171875</v>
@@ -6225,7 +6235,7 @@
         <v>0</v>
       </c>
       <c r="E253">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F253">
         <v>383.17999267578131</v>
@@ -6248,7 +6258,7 @@
         <v>1</v>
       </c>
       <c r="E254">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F254">
         <v>381.72000122070313</v>
@@ -6271,7 +6281,7 @@
         <v>0</v>
       </c>
       <c r="E255">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F255">
         <v>382.6099853515625</v>
@@ -6294,7 +6304,7 @@
         <v>1</v>
       </c>
       <c r="E256">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F256">
         <v>390.3699951171875</v>
@@ -6386,7 +6396,7 @@
         <v>0</v>
       </c>
       <c r="E260">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F260">
         <v>393.6199951171875</v>
@@ -6455,7 +6465,7 @@
         <v>1</v>
       </c>
       <c r="E263">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F263">
         <v>389.3599853515625</v>
@@ -6478,7 +6488,7 @@
         <v>1</v>
       </c>
       <c r="E264">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F264">
         <v>390.10000610351563</v>
@@ -6524,7 +6534,7 @@
         <v>1</v>
       </c>
       <c r="E266">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F266">
         <v>398.8800048828125</v>
@@ -6547,7 +6557,7 @@
         <v>1</v>
       </c>
       <c r="E267">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F267">
         <v>395.95001220703131</v>
@@ -6570,7 +6580,7 @@
         <v>1</v>
       </c>
       <c r="E268">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F268">
         <v>403.1300048828125</v>
@@ -6685,7 +6695,7 @@
         <v>1</v>
       </c>
       <c r="E273">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F273">
         <v>414.8599853515625</v>
@@ -6731,7 +6741,7 @@
         <v>1</v>
       </c>
       <c r="E275">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F275">
         <v>409.79000854492188</v>
@@ -6754,7 +6764,7 @@
         <v>0</v>
       </c>
       <c r="E276">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F276">
         <v>408.8699951171875</v>
@@ -6777,7 +6787,7 @@
         <v>0</v>
       </c>
       <c r="E277">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F277">
         <v>413.1300048828125</v>
@@ -6800,7 +6810,7 @@
         <v>1</v>
       </c>
       <c r="E278">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F278">
         <v>414.41000366210938</v>
@@ -6869,7 +6879,7 @@
         <v>1</v>
       </c>
       <c r="E281">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F281">
         <v>411.239990234375</v>
@@ -6915,7 +6925,7 @@
         <v>1</v>
       </c>
       <c r="E283">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F283">
         <v>408.79000854492188</v>
@@ -6938,7 +6948,7 @@
         <v>0</v>
       </c>
       <c r="E284">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F284">
         <v>406.05999755859381</v>
@@ -6961,7 +6971,7 @@
         <v>0</v>
       </c>
       <c r="E285">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F285">
         <v>403.05999755859381</v>
@@ -7007,7 +7017,7 @@
         <v>1</v>
       </c>
       <c r="E287">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F287">
         <v>401.55999755859381</v>
@@ -7030,7 +7040,7 @@
         <v>0</v>
       </c>
       <c r="E288">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F288">
         <v>395.42001342773438</v>
@@ -7099,7 +7109,7 @@
         <v>1</v>
       </c>
       <c r="E291">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F291">
         <v>395.41000366210938</v>
@@ -7145,7 +7155,7 @@
         <v>0</v>
       </c>
       <c r="E293">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F293">
         <v>399.70999145507813</v>
@@ -7191,7 +7201,7 @@
         <v>1</v>
       </c>
       <c r="E295">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F295">
         <v>404.42001342773438</v>
@@ -7214,7 +7224,7 @@
         <v>0</v>
       </c>
       <c r="E296">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F296">
         <v>398.3900146484375</v>
@@ -7260,7 +7270,7 @@
         <v>1</v>
       </c>
       <c r="E298">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F298">
         <v>390.989990234375</v>
@@ -7352,7 +7362,7 @@
         <v>0</v>
       </c>
       <c r="E302">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F302">
         <v>386.82000732421881</v>
@@ -7375,7 +7385,7 @@
         <v>1</v>
       </c>
       <c r="E303">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F303">
         <v>393.22000122070313</v>
@@ -7421,7 +7431,7 @@
         <v>0</v>
       </c>
       <c r="E305">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F305">
         <v>397.239990234375</v>
@@ -7467,7 +7477,7 @@
         <v>1</v>
       </c>
       <c r="E307">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F307">
         <v>395.08999633789063</v>
@@ -7490,7 +7500,7 @@
         <v>0</v>
       </c>
       <c r="E308">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F308">
         <v>391.83999633789063</v>
@@ -7536,7 +7546,7 @@
         <v>1</v>
       </c>
       <c r="E310">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F310">
         <v>395.76998901367188</v>
@@ -7559,7 +7569,7 @@
         <v>0</v>
       </c>
       <c r="E311">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F311">
         <v>399.92999267578131</v>
@@ -7582,7 +7592,7 @@
         <v>1</v>
       </c>
       <c r="E312">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F312">
         <v>404.08999633789063</v>
@@ -7628,7 +7638,7 @@
         <v>0</v>
       </c>
       <c r="E314">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F314">
         <v>408.85000610351563</v>
@@ -7674,7 +7684,7 @@
         <v>1</v>
       </c>
       <c r="E316">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F316">
         <v>407.91000366210938</v>
@@ -7720,7 +7730,7 @@
         <v>0</v>
       </c>
       <c r="E318">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F318">
         <v>406.6099853515625</v>
@@ -7766,7 +7776,7 @@
         <v>1</v>
       </c>
       <c r="E320">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F320">
         <v>411.8699951171875</v>
@@ -7789,7 +7799,7 @@
         <v>0</v>
       </c>
       <c r="E321">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F321">
         <v>409.17999267578131</v>
@@ -7812,7 +7822,7 @@
         <v>1</v>
       </c>
       <c r="E322">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F322">
         <v>412.80999755859381</v>
@@ -7835,7 +7845,7 @@
         <v>0</v>
       </c>
       <c r="E323">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F323">
         <v>412.3699951171875</v>
@@ -7858,7 +7868,7 @@
         <v>1</v>
       </c>
       <c r="E324">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F324">
         <v>415.57998657226563</v>
@@ -7973,7 +7983,7 @@
         <v>0</v>
       </c>
       <c r="E329">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F329">
         <v>410.57998657226563</v>
@@ -7996,7 +8006,7 @@
         <v>1</v>
       </c>
       <c r="E330">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F330">
         <v>406.72000122070313</v>
@@ -8065,7 +8075,7 @@
         <v>0</v>
       </c>
       <c r="E333">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F333">
         <v>415.47000122070313</v>
@@ -8134,7 +8144,7 @@
         <v>1</v>
       </c>
       <c r="E336">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F336">
         <v>406.92999267578131</v>
@@ -8157,7 +8167,7 @@
         <v>0</v>
       </c>
       <c r="E337">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F337">
         <v>408.91000366210938</v>
@@ -8226,7 +8236,7 @@
         <v>1</v>
       </c>
       <c r="E340">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F340">
         <v>413.8800048828125</v>
@@ -8249,7 +8259,7 @@
         <v>0</v>
       </c>
       <c r="E341">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F341">
         <v>411.95001220703131</v>
@@ -8318,7 +8328,7 @@
         <v>1</v>
       </c>
       <c r="E344">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F344">
         <v>411.8599853515625</v>
@@ -8364,7 +8374,7 @@
         <v>0</v>
       </c>
       <c r="E346">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F346">
         <v>414.89999389648438</v>
@@ -8387,7 +8397,7 @@
         <v>1</v>
       </c>
       <c r="E347">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F347">
         <v>420.17001342773438</v>
@@ -8410,7 +8420,7 @@
         <v>0</v>
       </c>
       <c r="E348">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F348">
         <v>418.6400146484375</v>
@@ -8479,7 +8489,7 @@
         <v>1</v>
       </c>
       <c r="E351">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F351">
         <v>414.739990234375</v>
@@ -8502,7 +8512,7 @@
         <v>0</v>
       </c>
       <c r="E352">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F352">
         <v>415.32998657226563</v>
@@ -8548,7 +8558,7 @@
         <v>1</v>
       </c>
       <c r="E354">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F354">
         <v>418.27999877929688</v>
@@ -8594,7 +8604,7 @@
         <v>0</v>
       </c>
       <c r="E356">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F356">
         <v>424.5</v>
@@ -8617,7 +8627,7 @@
         <v>1</v>
       </c>
       <c r="E357">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F357">
         <v>428.27999877929688</v>
@@ -8640,7 +8650,7 @@
         <v>0</v>
       </c>
       <c r="E358">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F358">
         <v>426.67001342773438</v>
@@ -8663,7 +8673,7 @@
         <v>1</v>
       </c>
       <c r="E359">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F359">
         <v>428.44000244140631</v>
@@ -8686,7 +8696,7 @@
         <v>0</v>
       </c>
       <c r="E360">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F360">
         <v>426.6199951171875</v>
@@ -8709,7 +8719,7 @@
         <v>1</v>
       </c>
       <c r="E361">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F361">
         <v>429.95999145507813</v>
@@ -8801,7 +8811,7 @@
         <v>0</v>
       </c>
       <c r="E365">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F365">
         <v>436.32998657226563</v>
@@ -8870,7 +8880,7 @@
         <v>1</v>
       </c>
       <c r="E368">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F368">
         <v>436.16000366210938</v>
@@ -8916,7 +8926,7 @@
         <v>0</v>
       </c>
       <c r="E370">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F370">
         <v>432.92999267578131</v>
@@ -8939,7 +8949,7 @@
         <v>1</v>
       </c>
       <c r="E371">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F371">
         <v>432.6199951171875</v>
@@ -9215,7 +9225,7 @@
         <v>0</v>
       </c>
       <c r="E383">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F383">
         <v>447.89999389648438</v>
@@ -9238,7 +9248,7 @@
         <v>1</v>
       </c>
       <c r="E384">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F384">
         <v>450.48001098632813</v>
@@ -9330,7 +9340,7 @@
         <v>0</v>
       </c>
       <c r="E388">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F388">
         <v>454.17001342773438</v>
@@ -9353,7 +9363,7 @@
         <v>1</v>
       </c>
       <c r="E389">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F389">
         <v>453.95999145507813</v>
@@ -9399,7 +9409,7 @@
         <v>1</v>
       </c>
       <c r="E391">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F391">
         <v>453.92001342773438</v>
@@ -9445,7 +9455,7 @@
         <v>1</v>
       </c>
       <c r="E393">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F393">
         <v>459.01998901367188</v>
@@ -9629,7 +9639,7 @@
         <v>0</v>
       </c>
       <c r="E401">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F401">
         <v>448.07998657226563</v>
@@ -9698,7 +9708,7 @@
         <v>1</v>
       </c>
       <c r="E404">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F404">
         <v>443.97000122070313</v>
@@ -9744,7 +9754,7 @@
         <v>0</v>
       </c>
       <c r="E406">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F406">
         <v>446.26998901367188</v>
@@ -9790,7 +9800,7 @@
         <v>1</v>
       </c>
       <c r="E408">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F408">
         <v>441.16000366210938</v>
@@ -9836,7 +9846,7 @@
         <v>0</v>
       </c>
       <c r="E410">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F410">
         <v>437.54998779296881</v>
@@ -9859,7 +9869,7 @@
         <v>1</v>
       </c>
       <c r="E411">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F411">
         <v>441.17999267578131</v>
@@ -9882,7 +9892,7 @@
         <v>0</v>
       </c>
       <c r="E412">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F412">
         <v>439.25</v>
@@ -9905,7 +9915,7 @@
         <v>1</v>
       </c>
       <c r="E413">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F413">
         <v>444.69000244140631</v>
@@ -9928,7 +9938,7 @@
         <v>1</v>
       </c>
       <c r="E414">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F414">
         <v>438.67999267578131</v>
@@ -9951,7 +9961,7 @@
         <v>1</v>
       </c>
       <c r="E415">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F415">
         <v>442.239990234375</v>
@@ -9974,7 +9984,7 @@
         <v>1</v>
       </c>
       <c r="E416">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F416">
         <v>442.64999389648438</v>
@@ -9997,7 +10007,7 @@
         <v>0</v>
       </c>
       <c r="E417">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F417">
         <v>449.510009765625</v>
@@ -10020,7 +10030,7 @@
         <v>0</v>
       </c>
       <c r="E418">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F418">
         <v>451.64999389648438</v>
@@ -10112,7 +10122,7 @@
         <v>1</v>
       </c>
       <c r="E422">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F422">
         <v>443.1099853515625</v>
@@ -10158,7 +10168,7 @@
         <v>0</v>
       </c>
       <c r="E424">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F424">
         <v>448.239990234375</v>
@@ -10181,7 +10191,7 @@
         <v>1</v>
       </c>
       <c r="E425">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F425">
         <v>446.95001220703131</v>
@@ -10296,7 +10306,7 @@
         <v>0</v>
       </c>
       <c r="E430">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F430">
         <v>442.67999267578131</v>
@@ -10365,7 +10375,7 @@
         <v>1</v>
       </c>
       <c r="E433">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F433">
         <v>432.45001220703131</v>
@@ -10388,7 +10398,7 @@
         <v>0</v>
       </c>
       <c r="E434">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F434">
         <v>429.17001342773438</v>
@@ -10434,7 +10444,7 @@
         <v>1</v>
       </c>
       <c r="E436">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F436">
         <v>427.08999633789063</v>
@@ -10503,7 +10513,7 @@
         <v>0</v>
       </c>
       <c r="E439">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F439">
         <v>426.6199951171875</v>
@@ -10526,7 +10536,7 @@
         <v>1</v>
       </c>
       <c r="E440">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F440">
         <v>425.05999755859381</v>
@@ -10664,7 +10674,7 @@
         <v>0</v>
       </c>
       <c r="E446">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F446">
         <v>435.6400146484375</v>
@@ -10710,7 +10720,7 @@
         <v>1</v>
       </c>
       <c r="E448">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F448">
         <v>435.20999145507813</v>
@@ -10756,7 +10766,7 @@
         <v>0</v>
       </c>
       <c r="E450">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F450">
         <v>432.80999755859381</v>
@@ -10848,7 +10858,7 @@
         <v>1</v>
       </c>
       <c r="E454">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F454">
         <v>419.6099853515625</v>
@@ -10894,7 +10904,7 @@
         <v>0</v>
       </c>
       <c r="E456">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F456">
         <v>421.8900146484375</v>
@@ -10963,7 +10973,7 @@
         <v>1</v>
       </c>
       <c r="E459">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F459">
         <v>413.55999755859381</v>
@@ -11101,7 +11111,7 @@
         <v>0</v>
       </c>
       <c r="E465">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F465">
         <v>435.69000244140631</v>
@@ -11170,7 +11180,7 @@
         <v>1</v>
       </c>
       <c r="E468">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F468">
         <v>435.98001098632813</v>
@@ -11239,7 +11249,7 @@
         <v>1</v>
       </c>
       <c r="E471">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F471">
         <v>450.1099853515625</v>
@@ -11285,7 +11295,7 @@
         <v>1</v>
       </c>
       <c r="E473">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F473">
         <v>450.239990234375</v>
@@ -11377,7 +11387,7 @@
         <v>0</v>
       </c>
       <c r="E477">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F477">
         <v>455.07000732421881</v>
@@ -11400,7 +11410,7 @@
         <v>1</v>
       </c>
       <c r="E478">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F478">
         <v>454.64999389648438</v>
@@ -11423,7 +11433,7 @@
         <v>0</v>
       </c>
       <c r="E479">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F479">
         <v>454.07998657226563</v>
@@ -11446,7 +11456,7 @@
         <v>1</v>
       </c>
       <c r="E480">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F480">
         <v>457.14999389648438</v>
@@ -11538,7 +11548,7 @@
         <v>0</v>
       </c>
       <c r="E484">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F484">
         <v>455.260009765625</v>
@@ -11561,7 +11571,7 @@
         <v>1</v>
       </c>
       <c r="E485">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F485">
         <v>458.80999755859381</v>
@@ -11676,7 +11686,7 @@
         <v>0</v>
       </c>
       <c r="E490">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F490">
         <v>464.489990234375</v>
@@ -11722,7 +11732,7 @@
         <v>1</v>
       </c>
       <c r="E492">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F492">
         <v>469.489990234375</v>
@@ -11768,7 +11778,7 @@
         <v>0</v>
       </c>
       <c r="E494">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F494">
         <v>472.52999877929688</v>
@@ -11791,7 +11801,7 @@
         <v>1</v>
       </c>
       <c r="E495">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F495">
         <v>473.95999145507813</v>
@@ -11814,7 +11824,7 @@
         <v>0</v>
       </c>
       <c r="E496">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F496">
         <v>471.32998657226563</v>
@@ -11837,7 +11847,7 @@
         <v>1</v>
       </c>
       <c r="E497">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F497">
         <v>473.8599853515625</v>
@@ -11883,7 +11893,7 @@
         <v>0</v>
       </c>
       <c r="E499">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F499">
         <v>475.44000244140631</v>
@@ -11929,7 +11939,7 @@
         <v>1</v>
       </c>
       <c r="E501">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F501">
         <v>476.489990234375</v>
@@ -11952,7 +11962,7 @@
         <v>0</v>
       </c>
       <c r="E502">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F502">
         <v>472.16000366210938</v>
@@ -12021,7 +12031,7 @@
         <v>1</v>
       </c>
       <c r="E505">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F505">
         <v>467.489990234375</v>
@@ -12090,7 +12100,7 @@
         <v>0</v>
       </c>
       <c r="E508">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F508">
         <v>474.16000366210938</v>
@@ -12159,7 +12169,7 @@
         <v>1</v>
       </c>
       <c r="E511">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F511">
         <v>475.260009765625</v>
@@ -12228,7 +12238,7 @@
         <v>0</v>
       </c>
       <c r="E514">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F514">
         <v>477.64999389648438</v>
@@ -12297,7 +12307,7 @@
         <v>1</v>
       </c>
       <c r="E517">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F517">
         <v>487.80999755859381</v>
@@ -12320,7 +12330,7 @@
         <v>0</v>
       </c>
       <c r="E518">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F518">
         <v>487.57998657226563</v>
@@ -12343,7 +12353,7 @@
         <v>1</v>
       </c>
       <c r="E519">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F519">
         <v>487.58999633789063</v>
@@ -12389,7 +12399,7 @@
         <v>0</v>
       </c>
       <c r="E521">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F521">
         <v>490.55999755859381</v>
@@ -12412,7 +12422,7 @@
         <v>1</v>
       </c>
       <c r="E522">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F522">
         <v>488.6199951171875</v>
@@ -12435,7 +12445,7 @@
         <v>1</v>
       </c>
       <c r="E523">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F523">
         <v>484.6300048828125</v>
@@ -12458,7 +12468,7 @@
         <v>0</v>
       </c>
       <c r="E524">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F524">
         <v>489.64999389648438</v>
@@ -12481,7 +12491,7 @@
         <v>1</v>
       </c>
       <c r="E525">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F525">
         <v>493.70001220703131</v>
@@ -12504,7 +12514,7 @@
         <v>1</v>
       </c>
       <c r="E526">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F526">
         <v>493.51998901367188</v>
@@ -12573,7 +12583,7 @@
         <v>0</v>
       </c>
       <c r="E529">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F529">
         <v>498.83999633789063</v>
@@ -12619,7 +12629,7 @@
         <v>1</v>
       </c>
       <c r="E531">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F531">
         <v>494.52999877929688</v>
@@ -12665,7 +12675,7 @@
         <v>0</v>
       </c>
       <c r="E533">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F533">
         <v>499.29000854492188</v>
@@ -12711,7 +12721,7 @@
         <v>1</v>
       </c>
       <c r="E535">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F535">
         <v>497.72000122070313</v>
@@ -12734,7 +12744,7 @@
         <v>1</v>
       </c>
       <c r="E536">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F536">
         <v>495.42001342773438</v>
@@ -12826,7 +12836,7 @@
         <v>1</v>
       </c>
       <c r="E540">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F540">
         <v>506.70001220703131</v>
@@ -12918,7 +12928,7 @@
         <v>0</v>
       </c>
       <c r="E544">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F544">
         <v>512.030029296875</v>
@@ -12941,7 +12951,7 @@
         <v>0</v>
       </c>
       <c r="E545">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F545">
         <v>510.239990234375</v>
@@ -12964,7 +12974,7 @@
         <v>1</v>
       </c>
       <c r="E546">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F546">
         <v>510.54998779296881</v>
@@ -13010,7 +13020,7 @@
         <v>1</v>
       </c>
       <c r="E548">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F548">
         <v>515.46002197265625</v>
@@ -13056,7 +13066,7 @@
         <v>0</v>
       </c>
       <c r="E550">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F550">
         <v>513.45001220703125</v>
@@ -13125,7 +13135,7 @@
         <v>0</v>
       </c>
       <c r="E553">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F553">
         <v>510.20999145507813</v>
@@ -13194,7 +13204,7 @@
         <v>0</v>
       </c>
       <c r="E556">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F556">
         <v>515.77001953125</v>
@@ -13263,7 +13273,7 @@
         <v>0</v>
       </c>
       <c r="E559">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F559">
         <v>519.79998779296875</v>
@@ -13309,7 +13319,7 @@
         <v>0</v>
       </c>
       <c r="E561">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F561">
         <v>521.71002197265625</v>
@@ -13401,7 +13411,7 @@
         <v>0</v>
       </c>
       <c r="E565">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F565">
         <v>517.719970703125</v>
@@ -13447,7 +13457,7 @@
         <v>0</v>
       </c>
       <c r="E567">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F567">
         <v>514.46002197265625</v>
@@ -13470,7 +13480,7 @@
         <v>0</v>
       </c>
       <c r="E568">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F568">
         <v>519.1500244140625</v>
@@ -13539,7 +13549,7 @@
         <v>0</v>
       </c>
       <c r="E571">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F571">
         <v>515.67999267578125</v>
@@ -13677,7 +13687,7 @@
         <v>1</v>
       </c>
       <c r="E577">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F577">
         <v>499.44000244140631</v>
@@ -13723,7 +13733,7 @@
         <v>0</v>
       </c>
       <c r="E579">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F579">
         <v>501.77999877929688</v>
@@ -13746,7 +13756,7 @@
         <v>1</v>
       </c>
       <c r="E580">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F580">
         <v>506.55999755859381</v>
@@ -13792,7 +13802,7 @@
         <v>0</v>
       </c>
       <c r="E582">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F582">
         <v>506.35000610351563</v>
@@ -14045,7 +14055,7 @@
         <v>1</v>
       </c>
       <c r="E593">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F593">
         <v>522.55999755859375</v>
@@ -14068,7 +14078,7 @@
         <v>1</v>
       </c>
       <c r="E594">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F594">
         <v>521.1099853515625</v>
@@ -14114,7 +14124,7 @@
         <v>1</v>
       </c>
       <c r="E596">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F596">
         <v>529.8800048828125</v>
@@ -14183,7 +14193,7 @@
         <v>0</v>
       </c>
       <c r="E599">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F599">
         <v>529.280029296875</v>
@@ -14229,7 +14239,7 @@
         <v>1</v>
       </c>
       <c r="E601">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F601">
         <v>532.96002197265625</v>
@@ -14252,7 +14262,7 @@
         <v>0</v>
       </c>
       <c r="E602">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F602">
         <v>527.8499755859375</v>
@@ -14275,7 +14285,7 @@
         <v>1</v>
       </c>
       <c r="E603">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F603">
         <v>530.27001953125</v>
@@ -14298,7 +14308,7 @@
         <v>0</v>
       </c>
       <c r="E604">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F604">
         <v>525.67999267578125</v>
@@ -14321,7 +14331,7 @@
         <v>1</v>
       </c>
       <c r="E605">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F605">
         <v>524.52001953125</v>
@@ -14344,7 +14354,7 @@
         <v>0</v>
       </c>
       <c r="E606">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F606">
         <v>523.59002685546875</v>
@@ -14367,7 +14377,7 @@
         <v>1</v>
       </c>
       <c r="E607">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F607">
         <v>529.02001953125</v>
@@ -14413,7 +14423,7 @@
         <v>0</v>
       </c>
       <c r="E609">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F609">
         <v>530.77001953125</v>
@@ -14436,7 +14446,7 @@
         <v>1</v>
       </c>
       <c r="E610">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F610">
         <v>534.97998046875</v>
@@ -14505,7 +14515,7 @@
         <v>0</v>
       </c>
       <c r="E613">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F613">
         <v>534.07000732421875</v>
@@ -14528,7 +14538,7 @@
         <v>0</v>
       </c>
       <c r="E614">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F614">
         <v>541.6300048828125</v>
@@ -14551,7 +14561,7 @@
         <v>1</v>
       </c>
       <c r="E615">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F615">
         <v>543.1500244140625</v>
@@ -14574,7 +14584,7 @@
         <v>1</v>
       </c>
       <c r="E616">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F616">
         <v>540.8800048828125</v>
@@ -14620,7 +14630,7 @@
         <v>0</v>
       </c>
       <c r="E618">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F618">
         <v>547.15997314453125</v>
@@ -14689,7 +14699,7 @@
         <v>1</v>
       </c>
       <c r="E621">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F621">
         <v>544.33001708984375</v>
@@ -14758,7 +14768,7 @@
         <v>0</v>
       </c>
       <c r="E624">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F624">
         <v>545.3699951171875</v>
@@ -14804,7 +14814,7 @@
         <v>1</v>
       </c>
       <c r="E626">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F626">
         <v>545.6300048828125</v>
@@ -14827,7 +14837,7 @@
         <v>1</v>
       </c>
       <c r="E627">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F627">
         <v>543.70001220703125</v>
@@ -14850,7 +14860,7 @@
         <v>1</v>
       </c>
       <c r="E628">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F628">
         <v>548.69000244140625</v>
@@ -14873,7 +14883,7 @@
         <v>0</v>
       </c>
       <c r="E629">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F629">
         <v>551.77001953125</v>
@@ -14919,7 +14929,7 @@
         <v>1</v>
       </c>
       <c r="E631">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F631">
         <v>556.260009765625</v>
@@ -14942,7 +14952,7 @@
         <v>0</v>
       </c>
       <c r="E632">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F632">
         <v>557.07000732421875</v>
@@ -14965,7 +14975,7 @@
         <v>1</v>
       </c>
       <c r="E633">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F633">
         <v>561.44000244140625</v>
@@ -14988,7 +14998,7 @@
         <v>0</v>
       </c>
       <c r="E634">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F634">
         <v>557.6300048828125</v>
@@ -15011,7 +15021,7 @@
         <v>1</v>
       </c>
       <c r="E635">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F635">
         <v>562.030029296875</v>
@@ -15034,7 +15044,7 @@
         <v>0</v>
       </c>
       <c r="E636">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F636">
         <v>562.8699951171875</v>

--- a/final_df.xlsx
+++ b/final_df.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo Thinkpad E14\Documents\ARKAD\MODEL-VOLUMEN\models\Open-closeVolum_v2\out\accuracy\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo Thinkpad E14\Documents\GitHub\Arkad\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E67F7EBF-863F-4441-827B-217CBA833167}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43FDD7C4-D7A3-4A0E-BA55-7797463B1CAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,13 +38,7 @@
     <t>Unnamed: 0</t>
   </si>
   <si>
-    <t>date-SPY</t>
-  </si>
-  <si>
     <t>direction_SPY</t>
-  </si>
-  <si>
-    <t>prediction</t>
   </si>
   <si>
     <t>L0-open-SPY</t>
@@ -52,13 +46,19 @@
   <si>
     <t>L0-close-SPY</t>
   </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>pred</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -114,7 +114,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -420,7 +420,7 @@
   <dimension ref="A1:H60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L15" sqref="L15"/>
+      <selection activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -433,19 +433,19 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
